--- a/VectorMobileTests/src/test/resources/testDatas/registerWithUnvalidPhoneNumberTest.xlsx
+++ b/VectorMobileTests/src/test/resources/testDatas/registerWithUnvalidPhoneNumberTest.xlsx
@@ -19,7 +19,7 @@
     <t>,;,;,;,;</t>
   </si>
   <si>
-    <t>173648291827361092</t>
+    <t>1736482191827361092</t>
   </si>
 </sst>
 </file>
